--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.356299999999997</v>
+        <v>9.192599999999997</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.187500000000004</v>
+        <v>5.434500000000002</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.539299999999998</v>
+        <v>5.575000000000004</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.3669</v>
+        <v>15.6235</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.7954</v>
+        <v>17.6105</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2055</v>
+        <v>16.1207</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.200599999999995</v>
+        <v>7.314399999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.666699999999985</v>
+        <v>9.511399999999989</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.93999999999999</v>
+        <v>15.99729999999999</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.86330000000001</v>
+        <v>16.81170000000001</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.69100000000001</v>
+        <v>16.57130000000001</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.12749999999999</v>
+        <v>16.13149999999999</v>
       </c>
     </row>
     <row r="24">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.416399999999999</v>
+        <v>5.549900000000004</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.247000000000002</v>
+        <v>5.208800000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.29830000000002</v>
+        <v>17.25900000000001</v>
       </c>
     </row>
     <row r="30">
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.541699999999993</v>
+        <v>7.507099999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.12530000000001</v>
+        <v>16.99290000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.034399999999996</v>
+        <v>9.198599999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.39810000000001</v>
+        <v>16.61609999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.25560000000001</v>
+        <v>17.2744</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.7284</v>
+        <v>16.6145</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.45079999999999</v>
+        <v>16.4863</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.010700000000003</v>
+        <v>5.8993</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.49239999999999</v>
+        <v>16.7159</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.51619999999999</v>
+        <v>16.45329999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.6365</v>
+        <v>5.312399999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.28510000000001</v>
+        <v>17.16670000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.287799999999997</v>
+        <v>5.028900000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.314399999999998</v>
+        <v>5.082899999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.727599999999999</v>
+        <v>4.974799999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.594499999999997</v>
+        <v>5.475000000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.748699999999997</v>
+        <v>5.962599999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.13950000000002</v>
+        <v>17.0501</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.21380000000001</v>
+        <v>17.07170000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.456800000000001</v>
+        <v>8.4184</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.999299999999995</v>
+        <v>9.004299999999995</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.09070000000002</v>
+        <v>18.32580000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.66589999999999</v>
+        <v>16.61139999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.733999999999996</v>
+        <v>4.628499999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.6267</v>
+        <v>18.76140000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.45200000000001</v>
+        <v>16.5606</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.4333</v>
+        <v>5.300400000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
